--- a/biology/Médecine/Parasitose/Parasitose.xlsx
+++ b/biology/Médecine/Parasitose/Parasitose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parasitose est un terme désignant l'ensemble maladies dues à des parasites, maladies parasitaires ou maladies parasitiques[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parasitose est un terme désignant l'ensemble maladies dues à des parasites, maladies parasitaires ou maladies parasitiques. 
 La parasitologie est la science qui étudie les parasitoses chez l'Homme ou d'autres espèces (animaux, champignons, plantes).
 </t>
         </is>
@@ -514,16 +526,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classification par les causes
-On peut placer les parasitoses en trois groupes selon leurs agents (parasites) : 
+          <t>Classification par les causes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>On peut placer les parasitoses en trois groupes selon leurs agents (parasites) : 
 les protozoaires (parasites unicellulaires) ;
 les métazoaires (parasites pluricellulaires : vers parasites par exemple) ;
-les arthropodes servent souvent de vecteur permettant le transport du parasite.
-Classification par siège
-Certaines parasitoses affectent une zone particulière de l'organisme.
-Les parasitoses intestinales
-L'oxyurose affecte les intestins[1].
-</t>
+les arthropodes servent souvent de vecteur permettant le transport du parasite.</t>
         </is>
       </c>
     </row>
@@ -548,10 +560,90 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Classification par siège</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines parasitoses affectent une zone particulière de l'organisme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parasitose</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasitose</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification par siège</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Les parasitoses intestinales</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oxyurose affecte les intestins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parasitose</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasitose</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Physiopathologie humaine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chez l'homme ou l'animal, l'infestation peut se faire de différentes manières :
 par voie buccale ;
@@ -561,31 +653,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Parasitose</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Parasitose</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste de maladies parasitaires humaines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kératite à Acanthamoeba
